--- a/Assets/Resources/MasterData/ObjectData.xlsx
+++ b/Assets/Resources/MasterData/ObjectData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C740D5B-4596-47EB-AE37-8829FAE4DE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834CE26C-F94F-4CC2-AA6C-2C17CCA13D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Assets/Resources/MasterData/ObjectData.xlsx
+++ b/Assets/Resources/MasterData/ObjectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834CE26C-F94F-4CC2-AA6C-2C17CCA13D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7BDFA-0D41-455C-BD0C-F74690CFE69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectData" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/ObjectData.xlsx
+++ b/Assets/Resources/MasterData/ObjectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\DeepBlind\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7BDFA-0D41-455C-BD0C-F74690CFE69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D5D49-AECF-43AB-B713-872103944718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="2310" windowWidth="10695" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectData" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
